--- a/config_multi.xls/klbGameList.xlsx
+++ b/config_multi.xls/klbGameList.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A3942-8FCB-44A3-9019-F07485EAF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="klb_gameList" sheetId="1" r:id="rId1"/>
@@ -20,13 +14,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>芒果</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="R1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -63,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -85,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -111,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="U1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -133,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="V1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -155,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="W1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -168,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="P77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="260">
   <si>
     <t>id</t>
   </si>
@@ -957,13 +951,28 @@
   </si>
   <si>
     <t>dt-dezhou</t>
+  </si>
+  <si>
+    <t>21点</t>
+  </si>
+  <si>
+    <t>dt-ershiyi</t>
+  </si>
+  <si>
+    <t>qh_ershiyi_zi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -999,6 +1008,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -1009,21 +1169,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1031,9 +1372,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1050,17 +1633,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1318,42 +1945,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F41" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="8.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" style="1" customWidth="1"/>
-    <col min="13" max="17" width="8.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5546875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.1111111111111" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="17" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5555555555556" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.88671875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="1" customWidth="1"/>
-    <col min="25" max="1021" width="8.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.8888888888889" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="25" max="1021" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="1022" max="1022" width="9" style="1" customWidth="1"/>
     <col min="1023" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +2051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1486,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1548,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1607,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="12.95" customHeight="1" spans="1:20">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1666,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1734,7 +2361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1796,7 +2423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1849,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1911,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1973,7 +2600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2035,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2088,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2156,7 +2783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2224,7 +2851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2292,7 +2919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2351,7 +2978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2413,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2472,7 +3099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="15" customHeight="1" spans="1:20">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2534,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2593,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2655,7 +3282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2717,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2776,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2835,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2900,7 +3527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2963,7 +3590,7 @@
       </c>
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3026,7 +3653,7 @@
       </c>
       <c r="X27" s="4"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3087,7 +3714,7 @@
       </c>
       <c r="X28" s="4"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3146,7 +3773,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3208,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="15.95" customHeight="1" spans="1:20">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3270,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3329,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3388,7 +4015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3450,7 +4077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3500,7 +4127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3559,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3621,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3683,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3751,7 +4378,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3810,7 +4437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3872,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="15" customHeight="1" spans="1:20">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3931,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3993,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4061,7 +4688,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4123,7 +4750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4173,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4235,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4294,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4356,7 +4983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4415,7 +5042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4477,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4536,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4598,7 +5225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4657,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4716,7 +5343,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4778,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4837,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4896,7 +5523,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4958,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5017,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5082,7 +5709,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5144,7 +5771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5203,7 +5830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5262,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5324,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5386,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5445,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5507,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5566,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5625,7 +6252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5687,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5749,7 +6376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5808,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="13.5" customHeight="1" spans="1:23">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5873,7 +6500,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5935,7 +6562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5994,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6053,7 +6680,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6109,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6165,7 +6792,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6221,7 +6848,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6280,22 +6907,81 @@
         <v>2</v>
       </c>
     </row>
+    <row r="82" spans="1:20">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>185</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="1">
+        <v>85</v>
+      </c>
+      <c r="M82" s="1">
+        <v>4</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+      <c r="P82" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1">
+        <v>1</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T82" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="金币场是否对应多个朋友场,对应则填游戏ID" sqref="G1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否朋友场；是为1，不是为0" sqref="H1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="游戏类型：0为麻将，1为扑克，2为小刺激" sqref="I1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否开放" sqref="J1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="关联金币及朋友场ID" sqref="L1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ICON显示优先级；数值越大显示越高" sqref="M1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否为热门游戏" sqref="O1" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否可点击" sqref="N1" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否小刺激" sqref="P1" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否默认游戏" sqref="Q1" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="金币场是否对应多个朋友场,对应则填游戏ID" sqref="G1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否朋友场；是为1，不是为0" sqref="H1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="游戏类型：0为麻将，1为扑克，2为小刺激" sqref="I1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否开放" sqref="J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="关联金币及朋友场ID" sqref="L1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="ICON显示优先级；数值越大显示越高" sqref="M1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否为热门游戏" sqref="O1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否可点击" sqref="N1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否小刺激" sqref="P1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="是否默认游戏" sqref="Q1"/>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.50902777777777797" footer="0.50902777777777797"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.509027777777778" footer="0.509027777777778"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config_multi.xls/klbGameList.xlsx
+++ b/config_multi.xls/klbGameList.xlsx
@@ -967,8 +967,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1008,6 +1008,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1015,10 +1030,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1030,22 +1099,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1061,9 +1137,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,89 +1154,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,7 +1179,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,31 +1329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,139 +1353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,40 +1373,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1423,11 +1399,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,22 +1432,40 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1473,148 +1473,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1953,8 +1953,8 @@
   <sheetPr/>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="F41" workbookViewId="0">
-      <selection activeCell="R86" sqref="R86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>27</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>27</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>27</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>27</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>27</v>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>27</v>
@@ -2505,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>27</v>
@@ -2567,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>27</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>27</v>
@@ -2809,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>27</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>27</v>
@@ -3066,7 +3066,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>27</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>27</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>27</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>27</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>27</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>27</v>
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>27</v>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>27</v>
@@ -3555,8 +3555,8 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="4">
-        <v>1</v>
+      <c r="J26" s="1">
+        <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>27</v>
@@ -3618,8 +3618,8 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4">
-        <v>1</v>
+      <c r="J27" s="1">
+        <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>27</v>
@@ -3679,8 +3679,8 @@
       <c r="I28" s="4">
         <v>0</v>
       </c>
-      <c r="J28" s="4">
-        <v>1</v>
+      <c r="J28" s="1">
+        <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>27</v>
@@ -3740,7 +3740,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>27</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>27</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>27</v>
@@ -3923,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>27</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>27</v>
@@ -4044,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>27</v>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>27</v>
@@ -4404,7 +4404,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>27</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>27</v>
@@ -4525,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>27</v>
@@ -4587,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>27</v>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>27</v>
@@ -4717,7 +4717,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>27</v>
@@ -4829,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>27</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>27</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>27</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>27</v>
@@ -5071,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>27</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>27</v>
@@ -5192,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>27</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>27</v>
@@ -5310,7 +5310,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>27</v>
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>27</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>27</v>
@@ -5490,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>27</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>27</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>27</v>
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>27</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>208</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>209</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>27</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>27</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>27</v>
@@ -6039,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>208</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>27</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>208</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>27</v>
@@ -6281,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>27</v>
@@ -6343,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>27</v>
@@ -6402,7 +6402,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>208</v>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>27</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>27</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>208</v>
@@ -6647,7 +6647,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>27</v>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>27</v>
@@ -6818,7 +6818,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>27</v>
@@ -6874,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>27</v>
@@ -6912,7 +6912,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>257</v>
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>27</v>

--- a/config_multi.xls/klbGameList.xlsx
+++ b/config_multi.xls/klbGameList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="490"/>
+    <workbookView windowHeight="17930" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="klb_gameList" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -953,10 +953,16 @@
     <t>dt-dezhou</t>
   </si>
   <si>
+    <t>title-dezhou</t>
+  </si>
+  <si>
     <t>21点</t>
   </si>
   <si>
     <t>dt-ershiyi</t>
+  </si>
+  <si>
+    <t>title-ershiyi</t>
   </si>
   <si>
     <t>qh_ershiyi_zi</t>
@@ -969,8 +975,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1008,25 +1014,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,29 +1039,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1083,11 +1051,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1103,6 +1085,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,8 +1112,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,14 +1144,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1179,13 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,19 +1227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,7 +1257,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,7 +1323,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,103 +1353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,21 +1376,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1447,15 +1438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1470,151 +1452,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1953,29 +1959,29 @@
   <sheetPr/>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.1111111111111" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="13" max="17" width="8.44444444444444" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.4444444444444" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5555555555556" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.44285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3357142857143" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.3357142857143" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6642857142857" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.66428571428571" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.44285714285714" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.1142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5571428571429" style="1" customWidth="1"/>
+    <col min="13" max="17" width="8.44285714285714" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.4428571428571" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5571428571429" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.3357142857143" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.3333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.8888888888889" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="1021" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.3357142857143" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.8857142857143" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.3357142857143" style="1" customWidth="1"/>
+    <col min="25" max="1021" width="8.44285714285714" style="1" customWidth="1"/>
     <col min="1022" max="1022" width="9" style="1" customWidth="1"/>
     <col min="1023" max="16384" width="9" style="1"/>
   </cols>
@@ -3099,7 +3105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:20">
+    <row r="19" customHeight="1" spans="1:20">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>27</v>
@@ -4499,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1" spans="1:20">
+    <row r="42" customHeight="1" spans="1:20">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4587,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>27</v>
@@ -4646,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>27</v>
@@ -5310,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>27</v>
@@ -6647,7 +6653,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>27</v>
@@ -6818,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>27</v>
@@ -6862,7 +6868,7 @@
         <v>256</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G81" s="1">
         <v>0</v>
@@ -6915,13 +6921,13 @@
         <v>203</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G82" s="1">
         <v>0</v>
@@ -6960,7 +6966,7 @@
         <v>1</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="T82" s="1">
         <v>2</v>

--- a/config_multi.xls/klbGameList.xlsx
+++ b/config_multi.xls/klbGameList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930" tabRatio="490"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="klb_gameList" sheetId="1" r:id="rId1"/>
@@ -1014,14 +1014,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1043,6 +1058,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1058,13 +1081,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1073,11 +1089,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1121,29 +1144,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1152,14 +1152,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,7 +1185,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,37 +1317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,19 +1329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1263,31 +1347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1299,73 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,11 +1381,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,195 +1460,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1959,29 +1959,29 @@
   <sheetPr/>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="8.44285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3357142857143" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.3357142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6642857142857" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.66428571428571" style="1" customWidth="1"/>
-    <col min="8" max="10" width="8.44285714285714" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.1142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5571428571429" style="1" customWidth="1"/>
-    <col min="13" max="17" width="8.44285714285714" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.4428571428571" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5571428571429" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.3357142857143" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.1111111111111" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5555555555556" style="1" customWidth="1"/>
+    <col min="13" max="17" width="8.44444444444444" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5555555555556" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.3333333333333" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.3357142857143" style="1" customWidth="1"/>
-    <col min="23" max="23" width="17.8857142857143" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.3357142857143" style="1" customWidth="1"/>
-    <col min="25" max="1021" width="8.44285714285714" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.3333333333333" style="1" customWidth="1"/>
+    <col min="23" max="23" width="17.8888888888889" style="2" customWidth="1"/>
+    <col min="24" max="24" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="25" max="1021" width="8.44444444444444" style="1" customWidth="1"/>
     <col min="1022" max="1022" width="9" style="1" customWidth="1"/>
     <col min="1023" max="16384" width="9" style="1"/>
   </cols>
@@ -3105,7 +3105,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:20">
+    <row r="19" ht="15" customHeight="1" spans="1:20">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>27</v>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:20">
+    <row r="42" ht="15" customHeight="1" spans="1:20">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>27</v>
@@ -4652,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>27</v>
@@ -5316,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>27</v>
@@ -6653,7 +6653,7 @@
         <v>2</v>
       </c>
       <c r="J77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>27</v>
@@ -6824,7 +6824,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>27</v>

--- a/config_multi.xls/klbGameList.xlsx
+++ b/config_multi.xls/klbGameList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="490"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="klb_gameList" sheetId="1" r:id="rId1"/>
@@ -947,7 +947,7 @@
     <t>2.1,-97.5</t>
   </si>
   <si>
-    <t>德州扑克</t>
+    <t>TexasHoldemTitle</t>
   </si>
   <si>
     <t>dt-dezhou</t>
@@ -956,7 +956,7 @@
     <t>title-dezhou</t>
   </si>
   <si>
-    <t>21点</t>
+    <t>blackjackTitle</t>
   </si>
   <si>
     <t>dt-ershiyi</t>
@@ -1014,8 +1014,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1031,44 +1074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,16 +1095,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,7 +1111,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1136,13 +1143,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1185,7 +1185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,25 +1221,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1269,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,37 +1317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,25 +1341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,61 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1383,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1403,17 +1403,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1448,11 +1442,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,8 +1460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,148 +1479,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1959,8 +1959,8 @@
   <sheetPr/>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
